--- a/Code/Results/Cases/Case_2_192/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_192/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9388189080824247</v>
+        <v>0.5409169226979031</v>
       </c>
       <c r="C2">
-        <v>0.146298176808493</v>
+        <v>0.3329233192770431</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1252929435029699</v>
+        <v>0.2792665140137736</v>
       </c>
       <c r="F2">
-        <v>0.9900769040233826</v>
+        <v>1.970087097525507</v>
       </c>
       <c r="G2">
-        <v>0.3370138838601378</v>
+        <v>0.7032749656967283</v>
       </c>
       <c r="H2">
-        <v>0.3140277878503142</v>
+        <v>0.8186446841592954</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07975977395862799</v>
+        <v>0.05939585791462676</v>
       </c>
       <c r="K2">
-        <v>0.6948081228331802</v>
+        <v>0.2200702513987949</v>
       </c>
       <c r="L2">
-        <v>0.2890913435132632</v>
+        <v>0.4332647405990571</v>
       </c>
       <c r="M2">
-        <v>0.2563493427344845</v>
+        <v>0.2279454393030633</v>
       </c>
       <c r="N2">
-        <v>0.9224781650449199</v>
+        <v>1.913694746301452</v>
       </c>
       <c r="O2">
-        <v>1.319161099912222</v>
+        <v>3.044284867623688</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8180803500747231</v>
+        <v>0.5070774280697776</v>
       </c>
       <c r="C3">
-        <v>0.1494770343135503</v>
+        <v>0.3347005241823382</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1202346700191406</v>
+        <v>0.2793215396643554</v>
       </c>
       <c r="F3">
-        <v>0.9513598450892928</v>
+        <v>1.972196926906108</v>
       </c>
       <c r="G3">
-        <v>0.334137686503361</v>
+        <v>0.7075680130256146</v>
       </c>
       <c r="H3">
-        <v>0.3177693199301217</v>
+        <v>0.8239040954914145</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0736348827005493</v>
+        <v>0.05727447299941701</v>
       </c>
       <c r="K3">
-        <v>0.6071412155960729</v>
+        <v>0.1929596540104228</v>
       </c>
       <c r="L3">
-        <v>0.2629467078993173</v>
+        <v>0.4281962130599197</v>
       </c>
       <c r="M3">
-        <v>0.2258338463703957</v>
+        <v>0.2201898896007926</v>
       </c>
       <c r="N3">
-        <v>0.9598684535530086</v>
+        <v>1.930414640454273</v>
       </c>
       <c r="O3">
-        <v>1.320583349594784</v>
+        <v>3.064172675528084</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7441141508010674</v>
+        <v>0.4864478491617774</v>
       </c>
       <c r="C4">
-        <v>0.1515170329245796</v>
+        <v>0.335852535068712</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1172525640694175</v>
+        <v>0.2794491102559284</v>
       </c>
       <c r="F4">
-        <v>0.9289663573111113</v>
+        <v>1.97436068646882</v>
       </c>
       <c r="G4">
-        <v>0.3330224992020661</v>
+        <v>0.710562170295475</v>
       </c>
       <c r="H4">
-        <v>0.3204825337439274</v>
+        <v>0.8274088422719785</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06986052141148846</v>
+        <v>0.0559583048570147</v>
       </c>
       <c r="K4">
-        <v>0.5532588807341625</v>
+        <v>0.1762803807888389</v>
       </c>
       <c r="L4">
-        <v>0.2470992781614569</v>
+        <v>0.4252430243863756</v>
       </c>
       <c r="M4">
-        <v>0.2071976773896154</v>
+        <v>0.215509161431708</v>
       </c>
       <c r="N4">
-        <v>0.9838049689394612</v>
+        <v>1.941219159995468</v>
       </c>
       <c r="O4">
-        <v>1.323699017862381</v>
+        <v>3.077712074505925</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7140066106897507</v>
+        <v>0.4780790369477188</v>
       </c>
       <c r="C5">
-        <v>0.1523704000032042</v>
+        <v>0.3363373068356665</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1160674698066977</v>
+        <v>0.2795247451485743</v>
       </c>
       <c r="F5">
-        <v>0.9201743166621341</v>
+        <v>1.975461146431435</v>
       </c>
       <c r="G5">
-        <v>0.3327255363859294</v>
+        <v>0.7118724302706454</v>
       </c>
       <c r="H5">
-        <v>0.3216901162890764</v>
+        <v>0.8289064083132516</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06831872462192834</v>
+        <v>0.05541854693383286</v>
       </c>
       <c r="K5">
-        <v>0.5312829824831766</v>
+        <v>0.1694755319923473</v>
       </c>
       <c r="L5">
-        <v>0.2406902172817666</v>
+        <v>0.4240797206810356</v>
       </c>
       <c r="M5">
-        <v>0.1996261783568585</v>
+        <v>0.2136223330070095</v>
       </c>
       <c r="N5">
-        <v>0.9938008125783639</v>
+        <v>1.945757558645747</v>
       </c>
       <c r="O5">
-        <v>1.325513903803625</v>
+        <v>3.083563749327297</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7090091242510539</v>
+        <v>0.4766917119670211</v>
       </c>
       <c r="C6">
-        <v>0.1525134293689518</v>
+        <v>0.3364187288507328</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1158724785752838</v>
+        <v>0.2795387345342739</v>
       </c>
       <c r="F6">
-        <v>0.9187341693480775</v>
+        <v>1.975657097271217</v>
       </c>
       <c r="G6">
-        <v>0.332685562088912</v>
+        <v>0.7120954419988976</v>
       </c>
       <c r="H6">
-        <v>0.3218967149760772</v>
+        <v>0.8291592694268388</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06806247814359878</v>
+        <v>0.05532871520410509</v>
       </c>
       <c r="K6">
-        <v>0.5276326569576781</v>
+        <v>0.1683451276509658</v>
       </c>
       <c r="L6">
-        <v>0.2396288719775299</v>
+        <v>0.4238889850916081</v>
       </c>
       <c r="M6">
-        <v>0.1983702520899158</v>
+        <v>0.2133102765998558</v>
       </c>
       <c r="N6">
-        <v>0.9954750713571237</v>
+        <v>1.946519340525533</v>
       </c>
       <c r="O6">
-        <v>1.325847663804396</v>
+        <v>3.084555611950663</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7437079813114451</v>
+        <v>0.4863348300275447</v>
       </c>
       <c r="C7">
-        <v>0.1515284526013856</v>
+        <v>0.3358590108084822</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.117236460693448</v>
+        <v>0.279450034453486</v>
       </c>
       <c r="F7">
-        <v>0.9288464516267751</v>
+        <v>1.974374641621353</v>
       </c>
       <c r="G7">
-        <v>0.3330178645715591</v>
+        <v>0.7105794759853268</v>
       </c>
       <c r="H7">
-        <v>0.320498410356798</v>
+        <v>0.8274287580430766</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06983974360149503</v>
+        <v>0.05595103927034373</v>
       </c>
       <c r="K7">
-        <v>0.5529625866550987</v>
+        <v>0.1761886396429304</v>
       </c>
       <c r="L7">
-        <v>0.2470126489280915</v>
+        <v>0.4252271728748127</v>
       </c>
       <c r="M7">
-        <v>0.2070954758745636</v>
+        <v>0.2154836313239734</v>
       </c>
       <c r="N7">
-        <v>0.9839388044000259</v>
+        <v>1.941279817816431</v>
       </c>
       <c r="O7">
-        <v>1.323721310526594</v>
+        <v>3.077789638471884</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8971485206841407</v>
+        <v>0.5292187494496261</v>
       </c>
       <c r="C8">
-        <v>0.1473758753692778</v>
+        <v>0.3335234982666977</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1235225829848119</v>
+        <v>0.2792660609314908</v>
       </c>
       <c r="F8">
-        <v>0.9764329026143344</v>
+        <v>1.970634563147925</v>
       </c>
       <c r="G8">
-        <v>0.3358833047177541</v>
+        <v>0.7046808868537298</v>
       </c>
       <c r="H8">
-        <v>0.3152299162919405</v>
+        <v>0.8204010141063236</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07765057109123674</v>
+        <v>0.05866724370699572</v>
       </c>
       <c r="K8">
-        <v>0.6645889468598654</v>
+        <v>0.2107296836359893</v>
       </c>
       <c r="L8">
-        <v>0.2800323096690249</v>
+        <v>0.4314842402742443</v>
       </c>
       <c r="M8">
-        <v>0.2458052752695181</v>
+        <v>0.2252545788481832</v>
       </c>
       <c r="N8">
-        <v>0.9351643881880367</v>
+        <v>1.91934805961804</v>
       </c>
       <c r="O8">
-        <v>1.319174619602748</v>
+        <v>3.050866676962002</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.19976649347862</v>
+        <v>0.6144623607876269</v>
       </c>
       <c r="C9">
-        <v>0.1399375954898989</v>
+        <v>0.3294246255315656</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1368772864638181</v>
+        <v>0.2796467349365876</v>
       </c>
       <c r="F9">
-        <v>1.081320849501367</v>
+        <v>1.970175656181482</v>
       </c>
       <c r="G9">
-        <v>0.3469574178560677</v>
+        <v>0.6959544787946967</v>
       </c>
       <c r="H9">
-        <v>0.3083235797577046</v>
+        <v>0.8088012444511179</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09287312943581583</v>
+        <v>0.06388497410306826</v>
       </c>
       <c r="K9">
-        <v>0.8832908990729038</v>
+        <v>0.2781839380715496</v>
       </c>
       <c r="L9">
-        <v>0.346548542565742</v>
+        <v>0.4450079734046284</v>
       </c>
       <c r="M9">
-        <v>0.3226284945523403</v>
+        <v>0.2450527118766743</v>
       </c>
       <c r="N9">
-        <v>0.8474967902135777</v>
+        <v>1.880608259340613</v>
       </c>
       <c r="O9">
-        <v>1.328930917481372</v>
+        <v>3.008598327063936</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.423742763256769</v>
+        <v>0.6777623985386469</v>
       </c>
       <c r="C10">
-        <v>0.1349097957293086</v>
+        <v>0.3267045190079543</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1473835318046959</v>
+        <v>0.280375100148273</v>
       </c>
       <c r="F10">
-        <v>1.166359239965416</v>
+        <v>1.974013210991316</v>
       </c>
       <c r="G10">
-        <v>0.3588435196310158</v>
+        <v>0.6912734020088109</v>
       </c>
       <c r="H10">
-        <v>0.3055199393924752</v>
+        <v>0.8016036003590514</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1040206434709958</v>
+        <v>0.06765166589822513</v>
       </c>
       <c r="K10">
-        <v>1.044212847766573</v>
+        <v>0.3275536410535551</v>
       </c>
       <c r="L10">
-        <v>0.3966943611052471</v>
+        <v>0.4556998169820758</v>
       </c>
       <c r="M10">
-        <v>0.3798026418932352</v>
+        <v>0.2599791019590683</v>
       </c>
       <c r="N10">
-        <v>0.7882571691199978</v>
+        <v>1.854741931949784</v>
       </c>
       <c r="O10">
-        <v>1.348764565992866</v>
+        <v>2.98394763483337</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.526132874602865</v>
+        <v>0.7066993673109323</v>
       </c>
       <c r="C11">
-        <v>0.1327191106343069</v>
+        <v>0.3255299215231471</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1523297904253269</v>
+        <v>0.2808031948407148</v>
       </c>
       <c r="F11">
-        <v>1.20699325864959</v>
+        <v>1.976662133798243</v>
       </c>
       <c r="G11">
-        <v>0.3651642779806963</v>
+        <v>0.689519266823531</v>
       </c>
       <c r="H11">
-        <v>0.3047801824946603</v>
+        <v>0.7986157518759853</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1090889382105189</v>
+        <v>0.06935064387754863</v>
       </c>
       <c r="K11">
-        <v>1.117559272582213</v>
+        <v>0.3499686512734286</v>
       </c>
       <c r="L11">
-        <v>0.4198312307351131</v>
+        <v>0.4607262838614758</v>
       </c>
       <c r="M11">
-        <v>0.4060130199097145</v>
+        <v>0.2668506004346298</v>
       </c>
       <c r="N11">
-        <v>0.7625013417687292</v>
+        <v>1.843536991508721</v>
       </c>
       <c r="O11">
-        <v>1.360837512032475</v>
+        <v>2.974121082770239</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.564989573697773</v>
+        <v>0.7176767630446648</v>
       </c>
       <c r="C12">
-        <v>0.1319035842550047</v>
+        <v>0.3250941314939482</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1542281846866906</v>
+        <v>0.2809791542862818</v>
       </c>
       <c r="F12">
-        <v>1.22267950736456</v>
+        <v>1.977794761948402</v>
       </c>
       <c r="G12">
-        <v>0.3676979243918908</v>
+        <v>0.6889089605375318</v>
       </c>
       <c r="H12">
-        <v>0.3045808622426875</v>
+        <v>0.7975254286771047</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1110081794128561</v>
+        <v>0.06999190048961879</v>
       </c>
       <c r="K12">
-        <v>1.145361462332005</v>
+        <v>0.3584499706066424</v>
       </c>
       <c r="L12">
-        <v>0.4286433857413527</v>
+        <v>0.4626529001098589</v>
       </c>
       <c r="M12">
-        <v>0.415970736835412</v>
+        <v>0.269464196298685</v>
       </c>
       <c r="N12">
-        <v>0.7529261934524012</v>
+        <v>1.839374684755503</v>
       </c>
       <c r="O12">
-        <v>1.365874368944048</v>
+        <v>2.970599258206533</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.556617169565527</v>
+        <v>0.7153117249553702</v>
       </c>
       <c r="C13">
-        <v>0.1320785954047157</v>
+        <v>0.3251875865894522</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1538181815930741</v>
+        <v>0.2809406433461312</v>
       </c>
       <c r="F13">
-        <v>1.219287584874763</v>
+        <v>1.97754507438151</v>
       </c>
       <c r="G13">
-        <v>0.3671458824426281</v>
+        <v>0.6890380019871429</v>
       </c>
       <c r="H13">
-        <v>0.3046201327126852</v>
+        <v>0.7977584220612783</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1105948306461926</v>
+        <v>0.06985388859455099</v>
       </c>
       <c r="K13">
-        <v>1.139372423392217</v>
+        <v>0.3566236753081853</v>
       </c>
       <c r="L13">
-        <v>0.4267432090998966</v>
+        <v>0.4622369399729109</v>
       </c>
       <c r="M13">
-        <v>0.413824665721485</v>
+        <v>0.2689008029761268</v>
       </c>
       <c r="N13">
-        <v>0.7549803473313972</v>
+        <v>1.840267520453342</v>
       </c>
       <c r="O13">
-        <v>1.364768469031247</v>
+        <v>2.971348886345481</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.529327890456358</v>
+        <v>0.7076020958688218</v>
       </c>
       <c r="C14">
-        <v>0.1326517344724749</v>
+        <v>0.3254938884917031</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1524854563349471</v>
+        <v>0.2808173939386513</v>
       </c>
       <c r="F14">
-        <v>1.208277672029553</v>
+        <v>1.976752721605777</v>
       </c>
       <c r="G14">
-        <v>0.365369862764922</v>
+        <v>0.6894679755173598</v>
       </c>
       <c r="H14">
-        <v>0.3047621422683591</v>
+        <v>0.7985252268384997</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1092468332954653</v>
+        <v>0.06940344285513333</v>
       </c>
       <c r="K14">
-        <v>1.119845982466785</v>
+        <v>0.3506665528424548</v>
       </c>
       <c r="L14">
-        <v>0.4205551719765452</v>
+        <v>0.4608843238358986</v>
       </c>
       <c r="M14">
-        <v>0.4068315772061766</v>
+        <v>0.267065393026094</v>
       </c>
       <c r="N14">
-        <v>0.7617099819514799</v>
+        <v>1.843192937576642</v>
       </c>
       <c r="O14">
-        <v>1.361242419182133</v>
+        <v>2.973827347450438</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.512623686740596</v>
+        <v>0.7028822548879532</v>
       </c>
       <c r="C15">
-        <v>0.133004631908836</v>
+        <v>0.3256826791737364</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1516724667856373</v>
+        <v>0.2807437017921259</v>
       </c>
       <c r="F15">
-        <v>1.201573297215091</v>
+        <v>1.976284242275241</v>
       </c>
       <c r="G15">
-        <v>0.3643005137152571</v>
+        <v>0.6897383714910816</v>
       </c>
       <c r="H15">
-        <v>0.3048597672010942</v>
+        <v>0.7990002684983395</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1084211562374833</v>
+        <v>0.06912725642788331</v>
       </c>
       <c r="K15">
-        <v>1.107889270832345</v>
+        <v>0.3470167482825843</v>
       </c>
       <c r="L15">
-        <v>0.4167715476110487</v>
+        <v>0.4600588232967624</v>
       </c>
       <c r="M15">
-        <v>0.4025524354882393</v>
+        <v>0.2659426443054755</v>
       </c>
       <c r="N15">
-        <v>0.7658554616598963</v>
+        <v>1.844995356875209</v>
       </c>
       <c r="O15">
-        <v>1.359143991689137</v>
+        <v>2.975371422426335</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.417062406229206</v>
+        <v>0.6758740822066329</v>
       </c>
       <c r="C16">
-        <v>0.1350549175652773</v>
+        <v>0.3267825431262725</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1470637547525477</v>
+        <v>0.2803490646638842</v>
       </c>
       <c r="F16">
-        <v>1.163744514956051</v>
+        <v>1.973858243266363</v>
       </c>
       <c r="G16">
-        <v>0.3584495635607041</v>
+        <v>0.6913955891524353</v>
       </c>
       <c r="H16">
-        <v>0.3055793811910945</v>
+        <v>0.8018046200344529</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1036893953305267</v>
+        <v>0.06754033976420004</v>
       </c>
       <c r="K16">
-        <v>1.039422939092759</v>
+        <v>0.3260878489481058</v>
       </c>
       <c r="L16">
-        <v>0.3951891901135696</v>
+        <v>0.455374582886364</v>
       </c>
       <c r="M16">
-        <v>0.3780940765491181</v>
+        <v>0.2595316546091837</v>
       </c>
       <c r="N16">
-        <v>0.7899649209680675</v>
+        <v>1.855485503663274</v>
       </c>
       <c r="O16">
-        <v>1.348039179685713</v>
+        <v>2.984617719789341</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.358575278328743</v>
+        <v>0.6593411428618765</v>
       </c>
       <c r="C17">
-        <v>0.1363375284217501</v>
+        <v>0.3274733388960058</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1442801483851106</v>
+        <v>0.2801317037430238</v>
       </c>
       <c r="F17">
-        <v>1.141050084202149</v>
+        <v>1.972601060684127</v>
       </c>
       <c r="G17">
-        <v>0.3551002673168639</v>
+        <v>0.6925083485357817</v>
       </c>
       <c r="H17">
-        <v>0.3061606545436817</v>
+        <v>0.8035982995146256</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1007861728018895</v>
+        <v>0.06656308532511446</v>
       </c>
       <c r="K17">
-        <v>0.9974623470890833</v>
+        <v>0.3132371452853704</v>
       </c>
       <c r="L17">
-        <v>0.3820351632276981</v>
+        <v>0.4525424857548472</v>
       </c>
       <c r="M17">
-        <v>0.3631436668549597</v>
+        <v>0.2556194300418397</v>
       </c>
       <c r="N17">
-        <v>0.8050652761251502</v>
+        <v>1.862064737916182</v>
       </c>
       <c r="O17">
-        <v>1.342026378906382</v>
+        <v>2.990645172045433</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.324981560797397</v>
+        <v>0.6498451934878915</v>
       </c>
       <c r="C18">
-        <v>0.1370843238107788</v>
+        <v>0.3278765781698123</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1426947172399053</v>
+        <v>0.2800157946325328</v>
       </c>
       <c r="F18">
-        <v>1.128179176786631</v>
+        <v>1.971962996382317</v>
       </c>
       <c r="G18">
-        <v>0.3532592922994837</v>
+        <v>0.6931837056332668</v>
       </c>
       <c r="H18">
-        <v>0.3065451644828272</v>
+        <v>0.8046569377993507</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09911603139111236</v>
+        <v>0.06599963015759158</v>
       </c>
       <c r="K18">
-        <v>0.973340661605647</v>
+        <v>0.3058416945270892</v>
       </c>
       <c r="L18">
-        <v>0.374499682314223</v>
+        <v>0.450928863429894</v>
       </c>
       <c r="M18">
-        <v>0.3545633417787855</v>
+        <v>0.2533768963715985</v>
       </c>
       <c r="N18">
-        <v>0.8138624395426479</v>
+        <v>1.865901818179788</v>
       </c>
       <c r="O18">
-        <v>1.338853433426308</v>
+        <v>2.994242582023517</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.313614956533513</v>
+        <v>0.6466323456001533</v>
       </c>
       <c r="C19">
-        <v>0.1373387290562249</v>
+        <v>0.3280141241814167</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1421605612370023</v>
+        <v>0.2799781166076301</v>
       </c>
       <c r="F19">
-        <v>1.123852072028583</v>
+        <v>1.971761573779716</v>
       </c>
       <c r="G19">
-        <v>0.3526503885576915</v>
+        <v>0.6934184381260664</v>
       </c>
       <c r="H19">
-        <v>0.3066838590759673</v>
+        <v>0.8050200073976939</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09855048991764193</v>
+        <v>0.06580862030612167</v>
       </c>
       <c r="K19">
-        <v>0.9651754886556887</v>
+        <v>0.3033370389164531</v>
       </c>
       <c r="L19">
-        <v>0.3719533970339342</v>
+        <v>0.4503851565963402</v>
       </c>
       <c r="M19">
-        <v>0.351661311287728</v>
+        <v>0.2526189371211061</v>
       </c>
       <c r="N19">
-        <v>0.8168600230467771</v>
+        <v>1.867210070327118</v>
       </c>
       <c r="O19">
-        <v>1.337827375680362</v>
+        <v>2.995483036255266</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.36479643563834</v>
+        <v>0.6610997251849255</v>
       </c>
       <c r="C20">
-        <v>0.1362000522698033</v>
+        <v>0.3273991908389036</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1445748412907193</v>
+        <v>0.2801538996816078</v>
       </c>
       <c r="F20">
-        <v>1.143446942853288</v>
+        <v>1.972726091693772</v>
       </c>
       <c r="G20">
-        <v>0.3554479001225914</v>
+        <v>0.6923862373154961</v>
       </c>
       <c r="H20">
-        <v>0.3060935571626615</v>
+        <v>0.8034045694111569</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1010952525246154</v>
+        <v>0.06666725709096255</v>
       </c>
       <c r="K20">
-        <v>1.001927735323108</v>
+        <v>0.314605549062577</v>
       </c>
       <c r="L20">
-        <v>0.3834322610644705</v>
+        <v>0.4528423826414354</v>
       </c>
       <c r="M20">
-        <v>0.364733198231491</v>
+        <v>0.2560351001847394</v>
       </c>
       <c r="N20">
-        <v>0.8034461964975996</v>
+        <v>1.86135889461802</v>
       </c>
       <c r="O20">
-        <v>1.342636721328731</v>
+        <v>2.989990026461484</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.5373410433331</v>
+        <v>0.7098660750184251</v>
       </c>
       <c r="C21">
-        <v>0.132483007294832</v>
+        <v>0.3254036760158101</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1528762108211161</v>
+        <v>0.2808532199250031</v>
       </c>
       <c r="F21">
-        <v>1.21150328064266</v>
+        <v>1.976981941902039</v>
       </c>
       <c r="G21">
-        <v>0.3658876481501565</v>
+        <v>0.6893402179537418</v>
       </c>
       <c r="H21">
-        <v>0.3047182061842264</v>
+        <v>0.7982988825512223</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1096427699404856</v>
+        <v>0.06953580712358587</v>
       </c>
       <c r="K21">
-        <v>1.12558056690051</v>
+        <v>0.3524164915337735</v>
       </c>
       <c r="L21">
-        <v>0.4223713391879755</v>
+        <v>0.461280991816551</v>
       </c>
       <c r="M21">
-        <v>0.4088847086664344</v>
+        <v>0.2676041866602574</v>
       </c>
       <c r="N21">
-        <v>0.7597284397159907</v>
+        <v>1.842331479991103</v>
       </c>
       <c r="O21">
-        <v>1.362265264627013</v>
+        <v>2.973093956575568</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.650603206822609</v>
+        <v>0.7418515628331477</v>
       </c>
       <c r="C22">
-        <v>0.1301356116299353</v>
+        <v>0.3241519656999525</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1584500968479148</v>
+        <v>0.281390960437367</v>
       </c>
       <c r="F22">
-        <v>1.257734441997073</v>
+        <v>1.980518277219815</v>
       </c>
       <c r="G22">
-        <v>0.3735317279842292</v>
+        <v>0.6876638998188866</v>
       </c>
       <c r="H22">
-        <v>0.3042922754511892</v>
+        <v>0.7952016089264475</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1152291910726646</v>
+        <v>0.0713982638719628</v>
       </c>
       <c r="K22">
-        <v>1.206558696185652</v>
+        <v>0.3770885014147325</v>
       </c>
       <c r="L22">
-        <v>0.4481179435857285</v>
+        <v>0.466931261982225</v>
       </c>
       <c r="M22">
-        <v>0.4379309641045595</v>
+        <v>0.2752322419000848</v>
       </c>
       <c r="N22">
-        <v>0.7321973193515525</v>
+        <v>1.830366692835341</v>
       </c>
       <c r="O22">
-        <v>1.37781797347165</v>
+        <v>2.963212848618184</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.590103809090323</v>
+        <v>0.724770135413138</v>
       </c>
       <c r="C23">
-        <v>0.1313809103812407</v>
+        <v>0.324815233861294</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1554611585087819</v>
+        <v>0.2810965959391183</v>
       </c>
       <c r="F23">
-        <v>1.232893202530235</v>
+        <v>1.978561908678941</v>
       </c>
       <c r="G23">
-        <v>0.3693737919006423</v>
+        <v>0.688529819368469</v>
       </c>
       <c r="H23">
-        <v>0.3044750185675866</v>
+        <v>0.7968327839255664</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1122474685740329</v>
+        <v>0.07040536939386755</v>
       </c>
       <c r="K23">
-        <v>1.163321698059917</v>
+        <v>0.3639243768964207</v>
       </c>
       <c r="L23">
-        <v>0.434347893008848</v>
+        <v>0.4639033038910867</v>
       </c>
       <c r="M23">
-        <v>0.4224097928193657</v>
+        <v>0.2711549412803933</v>
       </c>
       <c r="N23">
-        <v>0.7467936934086055</v>
+        <v>1.836709460065975</v>
       </c>
       <c r="O23">
-        <v>1.369258782388442</v>
+        <v>2.968380373890597</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.361983753756533</v>
+        <v>0.6603046418467216</v>
       </c>
       <c r="C24">
-        <v>0.1362621759546858</v>
+        <v>0.32743269419983</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1444415643154073</v>
+        <v>0.2801438366892732</v>
       </c>
       <c r="F24">
-        <v>1.142362774938235</v>
+        <v>1.972669301296207</v>
       </c>
       <c r="G24">
-        <v>0.3552904725370212</v>
+        <v>0.6924413328529582</v>
       </c>
       <c r="H24">
-        <v>0.3061237354113473</v>
+        <v>0.8034920693492538</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1009555208506896</v>
+        <v>0.06662016607532451</v>
       </c>
       <c r="K24">
-        <v>0.9999089275437143</v>
+        <v>0.3139869167583242</v>
       </c>
       <c r="L24">
-        <v>0.3828005495025479</v>
+        <v>0.4527067538051455</v>
       </c>
       <c r="M24">
-        <v>0.3640145250530011</v>
+        <v>0.255847154964556</v>
       </c>
       <c r="N24">
-        <v>0.8041778222955749</v>
+        <v>1.861677836324441</v>
       </c>
       <c r="O24">
-        <v>1.342359903235092</v>
+        <v>2.990285806136669</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.117656839969754</v>
+        <v>0.5912817111271238</v>
       </c>
       <c r="C25">
-        <v>0.1418736398654143</v>
+        <v>0.3304821790385688</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1331476476650479</v>
+        <v>0.2794647190410089</v>
       </c>
       <c r="F25">
-        <v>1.05161470206032</v>
+        <v>1.969565469951959</v>
       </c>
       <c r="G25">
-        <v>0.3433351243267495</v>
+        <v>0.6980112462944206</v>
       </c>
       <c r="H25">
-        <v>0.3098070101860557</v>
+        <v>0.8117062785784697</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08876301840079037</v>
+        <v>0.06248513023491142</v>
       </c>
       <c r="K25">
-        <v>0.8241113225851677</v>
+        <v>0.2599676639621009</v>
       </c>
       <c r="L25">
-        <v>0.3283451533205124</v>
+        <v>0.4412160910016354</v>
       </c>
       <c r="M25">
-        <v>0.301730486002576</v>
+        <v>0.2396293704375552</v>
       </c>
       <c r="N25">
-        <v>0.8703284605905743</v>
+        <v>1.890632107937098</v>
       </c>
       <c r="O25">
-        <v>1.324164310413408</v>
+        <v>3.018907441991814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_192/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_192/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5409169226979031</v>
+        <v>0.9388189080825384</v>
       </c>
       <c r="C2">
-        <v>0.3329233192770431</v>
+        <v>0.1462981768087346</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2792665140137736</v>
+        <v>0.1252929435030019</v>
       </c>
       <c r="F2">
-        <v>1.970087097525507</v>
+        <v>0.9900769040233897</v>
       </c>
       <c r="G2">
-        <v>0.7032749656967283</v>
+        <v>0.3370138838601449</v>
       </c>
       <c r="H2">
-        <v>0.8186446841592954</v>
+        <v>0.3140277878502005</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05939585791462676</v>
+        <v>0.07975977395858536</v>
       </c>
       <c r="K2">
-        <v>0.2200702513987949</v>
+        <v>0.6948081228331091</v>
       </c>
       <c r="L2">
-        <v>0.4332647405990571</v>
+        <v>0.2890913435132205</v>
       </c>
       <c r="M2">
-        <v>0.2279454393030633</v>
+        <v>0.2563493427344845</v>
       </c>
       <c r="N2">
-        <v>1.913694746301452</v>
+        <v>0.9224781650449181</v>
       </c>
       <c r="O2">
-        <v>3.044284867623688</v>
+        <v>1.319161099912151</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5070774280697776</v>
+        <v>0.8180803500746663</v>
       </c>
       <c r="C3">
-        <v>0.3347005241823382</v>
+        <v>0.1494770343134908</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2793215396643554</v>
+        <v>0.1202346700191725</v>
       </c>
       <c r="F3">
-        <v>1.972196926906108</v>
+        <v>0.9513598450892999</v>
       </c>
       <c r="G3">
-        <v>0.7075680130256146</v>
+        <v>0.3341376865033752</v>
       </c>
       <c r="H3">
-        <v>0.8239040954914145</v>
+        <v>0.3177693199301288</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05727447299941701</v>
+        <v>0.07363488270043561</v>
       </c>
       <c r="K3">
-        <v>0.1929596540104228</v>
+        <v>0.6071412155960445</v>
       </c>
       <c r="L3">
-        <v>0.4281962130599197</v>
+        <v>0.2629467078993741</v>
       </c>
       <c r="M3">
-        <v>0.2201898896007926</v>
+        <v>0.2258338463703922</v>
       </c>
       <c r="N3">
-        <v>1.930414640454273</v>
+        <v>0.9598684535530158</v>
       </c>
       <c r="O3">
-        <v>3.064172675528084</v>
+        <v>1.320583349594813</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4864478491617774</v>
+        <v>0.7441141508009537</v>
       </c>
       <c r="C4">
-        <v>0.335852535068712</v>
+        <v>0.1515170329241053</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2794491102559284</v>
+        <v>0.1172525640694033</v>
       </c>
       <c r="F4">
-        <v>1.97436068646882</v>
+        <v>0.9289663573110971</v>
       </c>
       <c r="G4">
-        <v>0.710562170295475</v>
+        <v>0.333022499202059</v>
       </c>
       <c r="H4">
-        <v>0.8274088422719785</v>
+        <v>0.3204825337438066</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0559583048570147</v>
+        <v>0.06986052141159149</v>
       </c>
       <c r="K4">
-        <v>0.1762803807888389</v>
+        <v>0.553258880734262</v>
       </c>
       <c r="L4">
-        <v>0.4252430243863756</v>
+        <v>0.2470992781614996</v>
       </c>
       <c r="M4">
-        <v>0.215509161431708</v>
+        <v>0.2071976773896402</v>
       </c>
       <c r="N4">
-        <v>1.941219159995468</v>
+        <v>0.9838049689394559</v>
       </c>
       <c r="O4">
-        <v>3.077712074505925</v>
+        <v>1.323699017862324</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4780790369477188</v>
+        <v>0.7140066106899781</v>
       </c>
       <c r="C5">
-        <v>0.3363373068356665</v>
+        <v>0.1523704000033312</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2795247451485743</v>
+        <v>0.1160674698067012</v>
       </c>
       <c r="F5">
-        <v>1.975461146431435</v>
+        <v>0.920174316662127</v>
       </c>
       <c r="G5">
-        <v>0.7118724302706454</v>
+        <v>0.3327255363860004</v>
       </c>
       <c r="H5">
-        <v>0.8289064083132516</v>
+        <v>0.3216901162890693</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05541854693383286</v>
+        <v>0.06831872462188215</v>
       </c>
       <c r="K5">
-        <v>0.1694755319923473</v>
+        <v>0.5312829824833472</v>
       </c>
       <c r="L5">
-        <v>0.4240797206810356</v>
+        <v>0.2406902172817809</v>
       </c>
       <c r="M5">
-        <v>0.2136223330070095</v>
+        <v>0.1996261783568656</v>
       </c>
       <c r="N5">
-        <v>1.945757558645747</v>
+        <v>0.9938008125783497</v>
       </c>
       <c r="O5">
-        <v>3.083563749327297</v>
+        <v>1.325513903803682</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4766917119670211</v>
+        <v>0.7090091242510255</v>
       </c>
       <c r="C6">
-        <v>0.3364187288507328</v>
+        <v>0.1525134293694164</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2795387345342739</v>
+        <v>0.115872478575298</v>
       </c>
       <c r="F6">
-        <v>1.975657097271217</v>
+        <v>0.9187341693481059</v>
       </c>
       <c r="G6">
-        <v>0.7120954419988976</v>
+        <v>0.3326855620889262</v>
       </c>
       <c r="H6">
-        <v>0.8291592694268388</v>
+        <v>0.3218967149760914</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05532871520410509</v>
+        <v>0.0680624781436201</v>
       </c>
       <c r="K6">
-        <v>0.1683451276509658</v>
+        <v>0.5276326569575929</v>
       </c>
       <c r="L6">
-        <v>0.4238889850916081</v>
+        <v>0.2396288719774873</v>
       </c>
       <c r="M6">
-        <v>0.2133102765998558</v>
+        <v>0.1983702520899158</v>
       </c>
       <c r="N6">
-        <v>1.946519340525533</v>
+        <v>0.9954750713571467</v>
       </c>
       <c r="O6">
-        <v>3.084555611950663</v>
+        <v>1.325847663804495</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4863348300275447</v>
+        <v>0.743707981311303</v>
       </c>
       <c r="C7">
-        <v>0.3358590108084822</v>
+        <v>0.151528452601319</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.279450034453486</v>
+        <v>0.1172364606934408</v>
       </c>
       <c r="F7">
-        <v>1.974374641621353</v>
+        <v>0.9288464516267751</v>
       </c>
       <c r="G7">
-        <v>0.7105794759853268</v>
+        <v>0.3330178645715591</v>
       </c>
       <c r="H7">
-        <v>0.8274287580430766</v>
+        <v>0.320498410356798</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05595103927034373</v>
+        <v>0.06983974360153766</v>
       </c>
       <c r="K7">
-        <v>0.1761886396429304</v>
+        <v>0.5529625866552408</v>
       </c>
       <c r="L7">
-        <v>0.4252271728748127</v>
+        <v>0.2470126489280631</v>
       </c>
       <c r="M7">
-        <v>0.2154836313239734</v>
+        <v>0.2070954758745707</v>
       </c>
       <c r="N7">
-        <v>1.941279817816431</v>
+        <v>0.9839388044000206</v>
       </c>
       <c r="O7">
-        <v>3.077789638471884</v>
+        <v>1.323721310526651</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5292187494496261</v>
+        <v>0.8971485206841692</v>
       </c>
       <c r="C8">
-        <v>0.3335234982666977</v>
+        <v>0.1473758753692733</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2792660609314908</v>
+        <v>0.1235225829848225</v>
       </c>
       <c r="F8">
-        <v>1.970634563147925</v>
+        <v>0.9764329026143415</v>
       </c>
       <c r="G8">
-        <v>0.7046808868537298</v>
+        <v>0.3358833047177683</v>
       </c>
       <c r="H8">
-        <v>0.8204010141063236</v>
+        <v>0.3152299162919405</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05866724370699572</v>
+        <v>0.07765057109123674</v>
       </c>
       <c r="K8">
-        <v>0.2107296836359893</v>
+        <v>0.6645889468599506</v>
       </c>
       <c r="L8">
-        <v>0.4314842402742443</v>
+        <v>0.2800323096689397</v>
       </c>
       <c r="M8">
-        <v>0.2252545788481832</v>
+        <v>0.245805275269511</v>
       </c>
       <c r="N8">
-        <v>1.91934805961804</v>
+        <v>0.9351643881880491</v>
       </c>
       <c r="O8">
-        <v>3.050866676962002</v>
+        <v>1.319174619602776</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6144623607876269</v>
+        <v>1.199766493478819</v>
       </c>
       <c r="C9">
-        <v>0.3294246255315656</v>
+        <v>0.1399375954901974</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2796467349365876</v>
+        <v>0.1368772864638217</v>
       </c>
       <c r="F9">
-        <v>1.970175656181482</v>
+        <v>1.081320849501338</v>
       </c>
       <c r="G9">
-        <v>0.6959544787946967</v>
+        <v>0.3469574178561317</v>
       </c>
       <c r="H9">
-        <v>0.8088012444511179</v>
+        <v>0.3083235797577046</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06388497410306826</v>
+        <v>0.09287312943575898</v>
       </c>
       <c r="K9">
-        <v>0.2781839380715496</v>
+        <v>0.8832908990729322</v>
       </c>
       <c r="L9">
-        <v>0.4450079734046284</v>
+        <v>0.3465485425656567</v>
       </c>
       <c r="M9">
-        <v>0.2450527118766743</v>
+        <v>0.3226284945523403</v>
       </c>
       <c r="N9">
-        <v>1.880608259340613</v>
+        <v>0.8474967902135813</v>
       </c>
       <c r="O9">
-        <v>3.008598327063936</v>
+        <v>1.328930917481372</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6777623985386469</v>
+        <v>1.423742763256911</v>
       </c>
       <c r="C10">
-        <v>0.3267045190079543</v>
+        <v>0.1349097957290688</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.280375100148273</v>
+        <v>0.1473835318046604</v>
       </c>
       <c r="F10">
-        <v>1.974013210991316</v>
+        <v>1.166359239965416</v>
       </c>
       <c r="G10">
-        <v>0.6912734020088109</v>
+        <v>0.3588435196309518</v>
       </c>
       <c r="H10">
-        <v>0.8016036003590514</v>
+        <v>0.3055199393923616</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06765166589822513</v>
+        <v>0.1040206434710385</v>
       </c>
       <c r="K10">
-        <v>0.3275536410535551</v>
+        <v>1.044212847766545</v>
       </c>
       <c r="L10">
-        <v>0.4556998169820758</v>
+        <v>0.3966943611052045</v>
       </c>
       <c r="M10">
-        <v>0.2599791019590683</v>
+        <v>0.3798026418932352</v>
       </c>
       <c r="N10">
-        <v>1.854741931949784</v>
+        <v>0.7882571691200084</v>
       </c>
       <c r="O10">
-        <v>2.98394763483337</v>
+        <v>1.348764565992823</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7066993673109323</v>
+        <v>1.526132874602922</v>
       </c>
       <c r="C11">
-        <v>0.3255299215231471</v>
+        <v>0.1327191106341434</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2808031948407148</v>
+        <v>0.1523297904253269</v>
       </c>
       <c r="F11">
-        <v>1.976662133798243</v>
+        <v>1.20699325864959</v>
       </c>
       <c r="G11">
-        <v>0.689519266823531</v>
+        <v>0.3651642779806679</v>
       </c>
       <c r="H11">
-        <v>0.7986157518759853</v>
+        <v>0.3047801824946603</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06935064387754863</v>
+        <v>0.1090889382105615</v>
       </c>
       <c r="K11">
-        <v>0.3499686512734286</v>
+        <v>1.117559272582156</v>
       </c>
       <c r="L11">
-        <v>0.4607262838614758</v>
+        <v>0.4198312307351131</v>
       </c>
       <c r="M11">
-        <v>0.2668506004346298</v>
+        <v>0.4060130199097074</v>
       </c>
       <c r="N11">
-        <v>1.843536991508721</v>
+        <v>0.7625013417687931</v>
       </c>
       <c r="O11">
-        <v>2.974121082770239</v>
+        <v>1.360837512032418</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7176767630446648</v>
+        <v>1.564989573697744</v>
       </c>
       <c r="C12">
-        <v>0.3250941314939482</v>
+        <v>0.1319035842550065</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2809791542862818</v>
+        <v>0.1542281846866764</v>
       </c>
       <c r="F12">
-        <v>1.977794761948402</v>
+        <v>1.222679507364546</v>
       </c>
       <c r="G12">
-        <v>0.6889089605375318</v>
+        <v>0.3676979243918552</v>
       </c>
       <c r="H12">
-        <v>0.7975254286771047</v>
+        <v>0.3045808622426875</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06999190048961879</v>
+        <v>0.1110081794128632</v>
       </c>
       <c r="K12">
-        <v>0.3584499706066424</v>
+        <v>1.145361462332005</v>
       </c>
       <c r="L12">
-        <v>0.4626529001098589</v>
+        <v>0.4286433857413385</v>
       </c>
       <c r="M12">
-        <v>0.269464196298685</v>
+        <v>0.4159707368354049</v>
       </c>
       <c r="N12">
-        <v>1.839374684755503</v>
+        <v>0.7529261934524492</v>
       </c>
       <c r="O12">
-        <v>2.970599258206533</v>
+        <v>1.36587436894402</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7153117249553702</v>
+        <v>1.556617169565385</v>
       </c>
       <c r="C13">
-        <v>0.3251875865894522</v>
+        <v>0.1320785954047121</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2809406433461312</v>
+        <v>0.1538181815930812</v>
       </c>
       <c r="F13">
-        <v>1.97754507438151</v>
+        <v>1.219287584874763</v>
       </c>
       <c r="G13">
-        <v>0.6890380019871429</v>
+        <v>0.3671458824425713</v>
       </c>
       <c r="H13">
-        <v>0.7977584220612783</v>
+        <v>0.3046201327125715</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06985388859455099</v>
+        <v>0.1105948306461357</v>
       </c>
       <c r="K13">
-        <v>0.3566236753081853</v>
+        <v>1.13937242339216</v>
       </c>
       <c r="L13">
-        <v>0.4622369399729109</v>
+        <v>0.4267432090997687</v>
       </c>
       <c r="M13">
-        <v>0.2689008029761268</v>
+        <v>0.4138246657214779</v>
       </c>
       <c r="N13">
-        <v>1.840267520453342</v>
+        <v>0.7549803473314647</v>
       </c>
       <c r="O13">
-        <v>2.971348886345481</v>
+        <v>1.364768469031191</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7076020958688218</v>
+        <v>1.529327890456358</v>
       </c>
       <c r="C14">
-        <v>0.3254938884917031</v>
+        <v>0.1326517344728657</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2808173939386513</v>
+        <v>0.1524854563349649</v>
       </c>
       <c r="F14">
-        <v>1.976752721605777</v>
+        <v>1.208277672029567</v>
       </c>
       <c r="G14">
-        <v>0.6894679755173598</v>
+        <v>0.3653698627649007</v>
       </c>
       <c r="H14">
-        <v>0.7985252268384997</v>
+        <v>0.3047621422683662</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06940344285513333</v>
+        <v>0.1092468332954439</v>
       </c>
       <c r="K14">
-        <v>0.3506665528424548</v>
+        <v>1.119845982466813</v>
       </c>
       <c r="L14">
-        <v>0.4608843238358986</v>
+        <v>0.42055517197646</v>
       </c>
       <c r="M14">
-        <v>0.267065393026094</v>
+        <v>0.4068315772061766</v>
       </c>
       <c r="N14">
-        <v>1.843192937576642</v>
+        <v>0.7617099819514177</v>
       </c>
       <c r="O14">
-        <v>2.973827347450438</v>
+        <v>1.361242419182133</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7028822548879532</v>
+        <v>1.512623686740511</v>
       </c>
       <c r="C15">
-        <v>0.3256826791737364</v>
+        <v>0.1330046319087579</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2807437017921259</v>
+        <v>0.1516724667856515</v>
       </c>
       <c r="F15">
-        <v>1.976284242275241</v>
+        <v>1.201573297215077</v>
       </c>
       <c r="G15">
-        <v>0.6897383714910816</v>
+        <v>0.3643005137152642</v>
       </c>
       <c r="H15">
-        <v>0.7990002684983395</v>
+        <v>0.3048597672010942</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06912725642788331</v>
+        <v>0.1084211562375046</v>
       </c>
       <c r="K15">
-        <v>0.3470167482825843</v>
+        <v>1.107889270832374</v>
       </c>
       <c r="L15">
-        <v>0.4600588232967624</v>
+        <v>0.4167715476110345</v>
       </c>
       <c r="M15">
-        <v>0.2659426443054755</v>
+        <v>0.4025524354882535</v>
       </c>
       <c r="N15">
-        <v>1.844995356875209</v>
+        <v>0.7658554616598412</v>
       </c>
       <c r="O15">
-        <v>2.975371422426335</v>
+        <v>1.359143991689123</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6758740822066329</v>
+        <v>1.417062406229093</v>
       </c>
       <c r="C16">
-        <v>0.3267825431262725</v>
+        <v>0.1350549175651086</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2803490646638842</v>
+        <v>0.1470637547525513</v>
       </c>
       <c r="F16">
-        <v>1.973858243266363</v>
+        <v>1.163744514956051</v>
       </c>
       <c r="G16">
-        <v>0.6913955891524353</v>
+        <v>0.3584495635606402</v>
       </c>
       <c r="H16">
-        <v>0.8018046200344529</v>
+        <v>0.3055793811911016</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06754033976420004</v>
+        <v>0.1036893953306404</v>
       </c>
       <c r="K16">
-        <v>0.3260878489481058</v>
+        <v>1.039422939092759</v>
       </c>
       <c r="L16">
-        <v>0.455374582886364</v>
+        <v>0.3951891901134843</v>
       </c>
       <c r="M16">
-        <v>0.2595316546091837</v>
+        <v>0.3780940765491323</v>
       </c>
       <c r="N16">
-        <v>1.855485503663274</v>
+        <v>0.7899649209680142</v>
       </c>
       <c r="O16">
-        <v>2.984617719789341</v>
+        <v>1.348039179685713</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6593411428618765</v>
+        <v>1.358575278328743</v>
       </c>
       <c r="C17">
-        <v>0.3274733388960058</v>
+        <v>0.1363375284217554</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2801317037430238</v>
+        <v>0.1442801483851177</v>
       </c>
       <c r="F17">
-        <v>1.972601060684127</v>
+        <v>1.141050084202149</v>
       </c>
       <c r="G17">
-        <v>0.6925083485357817</v>
+        <v>0.3551002673168711</v>
       </c>
       <c r="H17">
-        <v>0.8035982995146256</v>
+        <v>0.3061606545436817</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06656308532511446</v>
+        <v>0.1007861728018966</v>
       </c>
       <c r="K17">
-        <v>0.3132371452853704</v>
+        <v>0.9974623470890549</v>
       </c>
       <c r="L17">
-        <v>0.4525424857548472</v>
+        <v>0.382035163227556</v>
       </c>
       <c r="M17">
-        <v>0.2556194300418397</v>
+        <v>0.3631436668549668</v>
       </c>
       <c r="N17">
-        <v>1.862064737916182</v>
+        <v>0.8050652761250845</v>
       </c>
       <c r="O17">
-        <v>2.990645172045433</v>
+        <v>1.342026378906382</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6498451934878915</v>
+        <v>1.324981560797511</v>
       </c>
       <c r="C18">
-        <v>0.3278765781698123</v>
+        <v>0.137084323811008</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2800157946325328</v>
+        <v>0.1426947172399231</v>
       </c>
       <c r="F18">
-        <v>1.971962996382317</v>
+        <v>1.128179176786617</v>
       </c>
       <c r="G18">
-        <v>0.6931837056332668</v>
+        <v>0.3532592922995335</v>
       </c>
       <c r="H18">
-        <v>0.8046569377993507</v>
+        <v>0.3065451644828201</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06599963015759158</v>
+        <v>0.0991160313908992</v>
       </c>
       <c r="K18">
-        <v>0.3058416945270892</v>
+        <v>0.9733406616056186</v>
       </c>
       <c r="L18">
-        <v>0.450928863429894</v>
+        <v>0.374499682314223</v>
       </c>
       <c r="M18">
-        <v>0.2533768963715985</v>
+        <v>0.3545633417787926</v>
       </c>
       <c r="N18">
-        <v>1.865901818179788</v>
+        <v>0.813862439542639</v>
       </c>
       <c r="O18">
-        <v>2.994242582023517</v>
+        <v>1.338853433426266</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6466323456001533</v>
+        <v>1.313614956533513</v>
       </c>
       <c r="C19">
-        <v>0.3280141241814167</v>
+        <v>0.137338729056216</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2799781166076301</v>
+        <v>0.1421605612369987</v>
       </c>
       <c r="F19">
-        <v>1.971761573779716</v>
+        <v>1.123852072028598</v>
       </c>
       <c r="G19">
-        <v>0.6934184381260664</v>
+        <v>0.3526503885577554</v>
       </c>
       <c r="H19">
-        <v>0.8050200073976939</v>
+        <v>0.306683859076081</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06580862030612167</v>
+        <v>0.09855048991763482</v>
       </c>
       <c r="K19">
-        <v>0.3033370389164531</v>
+        <v>0.9651754886557171</v>
       </c>
       <c r="L19">
-        <v>0.4503851565963402</v>
+        <v>0.3719533970340052</v>
       </c>
       <c r="M19">
-        <v>0.2526189371211061</v>
+        <v>0.351661311287728</v>
       </c>
       <c r="N19">
-        <v>1.867210070327118</v>
+        <v>0.8168600230468339</v>
       </c>
       <c r="O19">
-        <v>2.995483036255266</v>
+        <v>1.337827375680376</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6610997251849255</v>
+        <v>1.364796435638169</v>
       </c>
       <c r="C20">
-        <v>0.3273991908389036</v>
+        <v>0.136200052269654</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2801538996816078</v>
+        <v>0.1445748412907193</v>
       </c>
       <c r="F20">
-        <v>1.972726091693772</v>
+        <v>1.143446942853302</v>
       </c>
       <c r="G20">
-        <v>0.6923862373154961</v>
+        <v>0.3554479001225488</v>
       </c>
       <c r="H20">
-        <v>0.8034045694111569</v>
+        <v>0.3060935571626544</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06666725709096255</v>
+        <v>0.1010952525247077</v>
       </c>
       <c r="K20">
-        <v>0.314605549062577</v>
+        <v>1.001927735323108</v>
       </c>
       <c r="L20">
-        <v>0.4528423826414354</v>
+        <v>0.3834322610645415</v>
       </c>
       <c r="M20">
-        <v>0.2560351001847394</v>
+        <v>0.3647331982314626</v>
       </c>
       <c r="N20">
-        <v>1.86135889461802</v>
+        <v>0.8034461964975979</v>
       </c>
       <c r="O20">
-        <v>2.989990026461484</v>
+        <v>1.342636721328716</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7098660750184251</v>
+        <v>1.5373410433331</v>
       </c>
       <c r="C21">
-        <v>0.3254036760158101</v>
+        <v>0.1324830072945193</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2808532199250031</v>
+        <v>0.1528762108211161</v>
       </c>
       <c r="F21">
-        <v>1.976981941902039</v>
+        <v>1.211503280642646</v>
       </c>
       <c r="G21">
-        <v>0.6893402179537418</v>
+        <v>0.3658876481500997</v>
       </c>
       <c r="H21">
-        <v>0.7982988825512223</v>
+        <v>0.3047182061842264</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06953580712358587</v>
+        <v>0.1096427699403861</v>
       </c>
       <c r="K21">
-        <v>0.3524164915337735</v>
+        <v>1.125580566900396</v>
       </c>
       <c r="L21">
-        <v>0.461280991816551</v>
+        <v>0.4223713391880466</v>
       </c>
       <c r="M21">
-        <v>0.2676041866602574</v>
+        <v>0.4088847086664344</v>
       </c>
       <c r="N21">
-        <v>1.842331479991103</v>
+        <v>0.7597284397159232</v>
       </c>
       <c r="O21">
-        <v>2.973093956575568</v>
+        <v>1.362265264626984</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7418515628331477</v>
+        <v>1.650603206822609</v>
       </c>
       <c r="C22">
-        <v>0.3241519656999525</v>
+        <v>0.1301356116297008</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.281390960437367</v>
+        <v>0.158450096847929</v>
       </c>
       <c r="F22">
-        <v>1.980518277219815</v>
+        <v>1.257734441997073</v>
       </c>
       <c r="G22">
-        <v>0.6876638998188866</v>
+        <v>0.3735317279841723</v>
       </c>
       <c r="H22">
-        <v>0.7952016089264475</v>
+        <v>0.3042922754513029</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0713982638719628</v>
+        <v>0.1152291910726078</v>
       </c>
       <c r="K22">
-        <v>0.3770885014147325</v>
+        <v>1.206558696185652</v>
       </c>
       <c r="L22">
-        <v>0.466931261982225</v>
+        <v>0.4481179435857285</v>
       </c>
       <c r="M22">
-        <v>0.2752322419000848</v>
+        <v>0.4379309641045523</v>
       </c>
       <c r="N22">
-        <v>1.830366692835341</v>
+        <v>0.7321973193515507</v>
       </c>
       <c r="O22">
-        <v>2.963212848618184</v>
+        <v>1.37781797347165</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.724770135413138</v>
+        <v>1.590103809090493</v>
       </c>
       <c r="C23">
-        <v>0.324815233861294</v>
+        <v>0.131380910381619</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2810965959391183</v>
+        <v>0.1554611585087748</v>
       </c>
       <c r="F23">
-        <v>1.978561908678941</v>
+        <v>1.232893202530235</v>
       </c>
       <c r="G23">
-        <v>0.688529819368469</v>
+        <v>0.369373791900685</v>
       </c>
       <c r="H23">
-        <v>0.7968327839255664</v>
+        <v>0.3044750185675866</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07040536939386755</v>
+        <v>0.1122474685740258</v>
       </c>
       <c r="K23">
-        <v>0.3639243768964207</v>
+        <v>1.163321698059832</v>
       </c>
       <c r="L23">
-        <v>0.4639033038910867</v>
+        <v>0.4343478930088338</v>
       </c>
       <c r="M23">
-        <v>0.2711549412803933</v>
+        <v>0.42240979281938</v>
       </c>
       <c r="N23">
-        <v>1.836709460065975</v>
+        <v>0.7467936934085895</v>
       </c>
       <c r="O23">
-        <v>2.968380373890597</v>
+        <v>1.369258782388414</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6603046418467216</v>
+        <v>1.361983753756476</v>
       </c>
       <c r="C24">
-        <v>0.32743269419983</v>
+        <v>0.1362621759549256</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2801438366892732</v>
+        <v>0.1444415643153754</v>
       </c>
       <c r="F24">
-        <v>1.972669301296207</v>
+        <v>1.142362774938206</v>
       </c>
       <c r="G24">
-        <v>0.6924413328529582</v>
+        <v>0.3552904725369928</v>
       </c>
       <c r="H24">
-        <v>0.8034920693492538</v>
+        <v>0.3061237354114681</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06662016607532451</v>
+        <v>0.1009555208505475</v>
       </c>
       <c r="K24">
-        <v>0.3139869167583242</v>
+        <v>0.9999089275437711</v>
       </c>
       <c r="L24">
-        <v>0.4527067538051455</v>
+        <v>0.3828005495025195</v>
       </c>
       <c r="M24">
-        <v>0.255847154964556</v>
+        <v>0.3640145250529798</v>
       </c>
       <c r="N24">
-        <v>1.861677836324441</v>
+        <v>0.8041778222955802</v>
       </c>
       <c r="O24">
-        <v>2.990285806136669</v>
+        <v>1.342359903235149</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5912817111271238</v>
+        <v>1.117656839969897</v>
       </c>
       <c r="C25">
-        <v>0.3304821790385688</v>
+        <v>0.1418736398654179</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2794647190410089</v>
+        <v>0.1331476476650586</v>
       </c>
       <c r="F25">
-        <v>1.969565469951959</v>
+        <v>1.05161470206032</v>
       </c>
       <c r="G25">
-        <v>0.6980112462944206</v>
+        <v>0.3433351243268703</v>
       </c>
       <c r="H25">
-        <v>0.8117062785784697</v>
+        <v>0.309807010185942</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06248513023491142</v>
+        <v>0.08876301840070511</v>
       </c>
       <c r="K25">
-        <v>0.2599676639621009</v>
+        <v>0.8241113225851961</v>
       </c>
       <c r="L25">
-        <v>0.4412160910016354</v>
+        <v>0.3283451533205692</v>
       </c>
       <c r="M25">
-        <v>0.2396293704375552</v>
+        <v>0.301730486002576</v>
       </c>
       <c r="N25">
-        <v>1.890632107937098</v>
+        <v>0.8703284605905193</v>
       </c>
       <c r="O25">
-        <v>3.018907441991814</v>
+        <v>1.324164310413423</v>
       </c>
     </row>
   </sheetData>
